--- a/result/gr75_02_simulated/details.xlsx
+++ b/result/gr75_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.570002555847168</v>
+        <v>0.5379502773284912</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1388.48354069848</v>
+        <v>1362.879238935046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07437409008853088</v>
+        <v>0.08763877066616421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05797763432352691</v>
+        <v>0.0659686939257412</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05037998415859246</v>
+        <v>0.05415184939863833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04117246593170133</v>
+        <v>0.04777356964298513</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03858959470586752</v>
+        <v>0.04209803594138108</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03672498192060804</v>
+        <v>0.03931961072044678</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03469169555685261</v>
+        <v>0.036335348939463</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03225346367511236</v>
+        <v>0.03371375395731176</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03071224049882081</v>
+        <v>0.03169166742758392</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02911736182357819</v>
+        <v>0.03092998878537609</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02856354802383782</v>
+        <v>0.02872268616742391</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02840620303919631</v>
+        <v>0.02868768712854163</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02790261903657817</v>
+        <v>0.02804791659761854</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02774173055391358</v>
+        <v>0.02775839900052697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02751251671296464</v>
+        <v>0.02742037517732443</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02738216559747784</v>
+        <v>0.02713258567321796</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02729193818847507</v>
+        <v>0.02688026967745171</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02714783898309476</v>
+        <v>0.02670058892456267</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02710373598266352</v>
+        <v>0.02665466711034592</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0270659559590347</v>
+        <v>0.02656684676286638</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6209933757781982</v>
+        <v>0.5468440055847168</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1351.043827071733</v>
+        <v>1522.855548330979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08580625664947687</v>
+        <v>0.08361686332864879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0608307298821547</v>
+        <v>0.06423223509984911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05141217618585116</v>
+        <v>0.05331887230971315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04215904379820304</v>
+        <v>0.04778818701787041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04054161509195217</v>
+        <v>0.04346189893065654</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03798139132135381</v>
+        <v>0.04071720165153045</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03525631320887949</v>
+        <v>0.03819074901077502</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03166334597442061</v>
+        <v>0.03531036696737656</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03120547751214809</v>
+        <v>0.03462112202391379</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02987301088240077</v>
+        <v>0.03299750715313022</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02847681428266722</v>
+        <v>0.03210460208562309</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02829879256890426</v>
+        <v>0.03147271764788988</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02785520289165816</v>
+        <v>0.03104447805117199</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02751747898817905</v>
+        <v>0.03083306409177649</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02704264339156043</v>
+        <v>0.03042183779829276</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02693212038761234</v>
+        <v>0.03023575642590364</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02668244974789083</v>
+        <v>0.02994225360485253</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02657083167523407</v>
+        <v>0.02984155714810646</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02638798832703037</v>
+        <v>0.02973538314249876</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02633613697995581</v>
+        <v>0.02968529333978516</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5560271739959717</v>
+        <v>0.6373727321624756</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1418.334589577795</v>
+        <v>1424.804695031242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08095753392039773</v>
+        <v>0.08640468316215603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06201383754266991</v>
+        <v>0.06733635468590429</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04912428512717684</v>
+        <v>0.0565765207963202</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04672067324951949</v>
+        <v>0.04773599730404315</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04098724406923232</v>
+        <v>0.04110232628151335</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03721769368356283</v>
+        <v>0.0386170366768795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03625167540168728</v>
+        <v>0.03540348277681836</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03370921087869844</v>
+        <v>0.03409179806983577</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03243896835157333</v>
+        <v>0.03252989001615429</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03157506393782212</v>
+        <v>0.03132877753908755</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03039126444098507</v>
+        <v>0.03053147885008178</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02898052425639968</v>
+        <v>0.029798049838418</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02870713543582813</v>
+        <v>0.02942136100226323</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02848696050419086</v>
+        <v>0.02903172112738912</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02823788683138848</v>
+        <v>0.02862035906896673</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02803876803252316</v>
+        <v>0.02841107059161844</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02795366189143863</v>
+        <v>0.02826432080213943</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02787828619063147</v>
+        <v>0.02797031877465897</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02766774188329146</v>
+        <v>0.02782767106898802</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02764784775005447</v>
+        <v>0.02777397066337703</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5459566116333008</v>
+        <v>0.5726428031921387</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1374.430392694067</v>
+        <v>1334.61952884516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08598051731656985</v>
+        <v>0.08466164772061893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06573735067944608</v>
+        <v>0.0653563507779675</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0536794603829404</v>
+        <v>0.05189310557398728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04920153126620554</v>
+        <v>0.0420133442655346</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04433269419561822</v>
+        <v>0.03926378465200384</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03751208078590558</v>
+        <v>0.03611035277400767</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03579299769324417</v>
+        <v>0.03338242622980554</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03370587562123812</v>
+        <v>0.03207948419195458</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03227977762134402</v>
+        <v>0.03062691710373522</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03141560591249317</v>
+        <v>0.02890188730833924</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0299711199152771</v>
+        <v>0.02823492821027294</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02909664381587505</v>
+        <v>0.02755394327352632</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02856790291394659</v>
+        <v>0.02724653630065522</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02772675063837727</v>
+        <v>0.02699015815157269</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02768504235999659</v>
+        <v>0.02670298475785676</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02724962582553398</v>
+        <v>0.02656354568836831</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02711369779773775</v>
+        <v>0.02619010980841111</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02689458411410049</v>
+        <v>0.0261600494083787</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02681649475170769</v>
+        <v>0.02609478420039806</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02679201545212605</v>
+        <v>0.02601597522115321</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5910007953643799</v>
+        <v>0.5468497276306152</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1350.40761231636</v>
+        <v>1362.695779015841</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08319554583026632</v>
+        <v>0.08148141783192024</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0646531387999187</v>
+        <v>0.0648621535885256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05189025801068749</v>
+        <v>0.05050776190242444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04426434514905005</v>
+        <v>0.03938509009910161</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03981960626068136</v>
+        <v>0.03891252715628523</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03693880137564304</v>
+        <v>0.03578975799524509</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03522787190259728</v>
+        <v>0.0340451984605006</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03301266117956394</v>
+        <v>0.03267302015811795</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03079021080224655</v>
+        <v>0.03155870263938178</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02987773768237425</v>
+        <v>0.03074643779051179</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02872571737662251</v>
+        <v>0.02975779914869726</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02841407926264124</v>
+        <v>0.02917031985495603</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02806804954771017</v>
+        <v>0.02842532408198684</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02738459600633902</v>
+        <v>0.02828845370361033</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02694689583973247</v>
+        <v>0.02783671111642836</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02694087572559418</v>
+        <v>0.02756630559113368</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02671777731376282</v>
+        <v>0.02721721033649855</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02650230923079945</v>
+        <v>0.02690803394605336</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0263237351328725</v>
+        <v>0.02667212698057454</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0263237351328725</v>
+        <v>0.02656327054611776</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5660359859466553</v>
+        <v>0.5625274181365967</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1366.120317190045</v>
+        <v>1427.536268220741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08258757809304899</v>
+        <v>0.08137416062519151</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06014742554204296</v>
+        <v>0.06206261508413942</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05060561897486611</v>
+        <v>0.05166531693420968</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04639683954605796</v>
+        <v>0.0457009525546058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04303551043689285</v>
+        <v>0.04195284247268454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03900996409110033</v>
+        <v>0.03826442422591787</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03632381888296136</v>
+        <v>0.03583366798151108</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03286680891007424</v>
+        <v>0.03419606376162903</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03162485785982861</v>
+        <v>0.03172141654112618</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02986101004969796</v>
+        <v>0.03152267879000625</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02953582276968415</v>
+        <v>0.0304989982389703</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02839703037143798</v>
+        <v>0.02979901203876512</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02802608303938069</v>
+        <v>0.02930614093560772</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02745680710197064</v>
+        <v>0.02873972457558988</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02732705715908045</v>
+        <v>0.02845220114562827</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02717684063129009</v>
+        <v>0.02822787381400904</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02704984781226514</v>
+        <v>0.02812344629002854</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02686849269854845</v>
+        <v>0.02792208928011815</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0266300256762192</v>
+        <v>0.02785596244070385</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0266300256762192</v>
+        <v>0.02782721770410802</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.534959077835083</v>
+        <v>0.5312473773956299</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1417.35654230315</v>
+        <v>1369.49363109059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08861300976088307</v>
+        <v>0.08366840322310459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06779972670941684</v>
+        <v>0.06530783125672728</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05500814907869019</v>
+        <v>0.05175219412386486</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04831843906331237</v>
+        <v>0.04322901155093072</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04254807469490286</v>
+        <v>0.0405033377045876</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03558409178725495</v>
+        <v>0.03696016912160736</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03321245256427235</v>
+        <v>0.03455058336522786</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03242985168011493</v>
+        <v>0.03257386970215584</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03134485517274089</v>
+        <v>0.03096274792744835</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0308696386452271</v>
+        <v>0.03048850592079426</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03024829529062889</v>
+        <v>0.02947498738543278</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02961228558561783</v>
+        <v>0.02889301128722907</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02853005724413633</v>
+        <v>0.0282789946581179</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02853005724413633</v>
+        <v>0.02787434459961883</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02813476034884376</v>
+        <v>0.02764339016123757</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02806330641696697</v>
+        <v>0.02727148585279834</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02784872392133722</v>
+        <v>0.02704267510064059</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02778377921193462</v>
+        <v>0.02686006151935953</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02767517866401522</v>
+        <v>0.0267554262381233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02762878250103607</v>
+        <v>0.02669578228246764</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5319972038269043</v>
+        <v>0.5312507152557373</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1404.614671344807</v>
+        <v>1343.889752077903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08008440655613283</v>
+        <v>0.0866742594030602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06159675596371957</v>
+        <v>0.06605318781023191</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04982367129797435</v>
+        <v>0.05270522917609941</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0427904177262169</v>
+        <v>0.04331936367573792</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03756939615622649</v>
+        <v>0.03847274768775324</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03557346830066793</v>
+        <v>0.03408585404114008</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03402260590030698</v>
+        <v>0.03275891905176725</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03213254448674099</v>
+        <v>0.03106931380365048</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0314047169828048</v>
+        <v>0.02980120135938038</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03041930536375006</v>
+        <v>0.02847970326480066</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02971003450590974</v>
+        <v>0.02764410616898378</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02901893186896822</v>
+        <v>0.02756512019493003</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02859746566831312</v>
+        <v>0.02704746752264118</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02827749283496945</v>
+        <v>0.02669376419959543</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02795145893890209</v>
+        <v>0.02651191051881675</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02778118444545883</v>
+        <v>0.02651191051881675</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0276740811809612</v>
+        <v>0.02644560075285921</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02758259213940743</v>
+        <v>0.02635080824615261</v>
       </c>
       <c r="X9" t="n">
-        <v>0.027483507753273</v>
+        <v>0.02633567656213838</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02738040295019116</v>
+        <v>0.02619668132705463</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5270266532897949</v>
+        <v>0.5468757152557373</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1326.787275845458</v>
+        <v>1360.035236524651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0873980326679272</v>
+        <v>0.08175339939961866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06216329688461102</v>
+        <v>0.05939275389805506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04978050112692652</v>
+        <v>0.05216592886107629</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04255783155404601</v>
+        <v>0.04404828603862633</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03794791970578007</v>
+        <v>0.04031534320730675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03557177201360904</v>
+        <v>0.03645246841428675</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03286727607630765</v>
+        <v>0.03380732865763134</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03163038551921105</v>
+        <v>0.03154331307519034</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02962443915096225</v>
+        <v>0.02960283905516569</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02877465185309878</v>
+        <v>0.02888392030516455</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02813020432322396</v>
+        <v>0.0287912123092457</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02743608079172375</v>
+        <v>0.02833821593620636</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02709964502519968</v>
+        <v>0.02755637453761902</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02672252940042076</v>
+        <v>0.02733473727608399</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0265585531922963</v>
+        <v>0.02710533514592152</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02613944595930388</v>
+        <v>0.02703616932830748</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02613944595930388</v>
+        <v>0.02678071210946995</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02611059547450726</v>
+        <v>0.02669910760695038</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02595227011444989</v>
+        <v>0.02657388465567731</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02586329972408299</v>
+        <v>0.0265114081193889</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5349881649017334</v>
+        <v>0.5468735694885254</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1339.242606960419</v>
+        <v>1458.047476610283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08494751704092167</v>
+        <v>0.08099376482044855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0654321559152202</v>
+        <v>0.06349216034661383</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05269205672549879</v>
+        <v>0.05536012407293445</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04366509765265057</v>
+        <v>0.04544874253695703</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03986666170206689</v>
+        <v>0.04269979952529807</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03481843187381169</v>
+        <v>0.03861602624336143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03309085080282587</v>
+        <v>0.03628460305708918</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0319251014244924</v>
+        <v>0.03375505558600902</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0303549561715293</v>
+        <v>0.03207306961909756</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0296188263975274</v>
+        <v>0.03144171816093407</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02863061075741625</v>
+        <v>0.03073216207147363</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02777062851542925</v>
+        <v>0.03023585081120483</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02720823472357677</v>
+        <v>0.02976004404791795</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0270693264383131</v>
+        <v>0.02930660986304776</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02672724896647352</v>
+        <v>0.02911696927665261</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02670886664531185</v>
+        <v>0.0289195182716698</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02643886823491834</v>
+        <v>0.02870807738541157</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02622932574215648</v>
+        <v>0.0286143382852668</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0261559115481459</v>
+        <v>0.02849398262840424</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02610609370293214</v>
+        <v>0.02842197810156497</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_02_simulated/details.xlsx
+++ b/result/gr75_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5379502773284912</v>
+        <v>1.173973083496094</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1362.879238935046</v>
+        <v>1563.547187408227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08763877066616421</v>
+        <v>0.07413226043880848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0659686939257412</v>
+        <v>0.05665253491457791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05415184939863833</v>
+        <v>0.04835475435085952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04777356964298513</v>
+        <v>0.04356527353342693</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04209803594138108</v>
+        <v>0.03931883653220122</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03931961072044678</v>
+        <v>0.03721419189091164</v>
       </c>
       <c r="L2" t="n">
-        <v>0.036335348939463</v>
+        <v>0.03515448336341394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03371375395731176</v>
+        <v>0.03436593252461427</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03169166742758392</v>
+        <v>0.03373797580173417</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03092998878537609</v>
+        <v>0.03280077365886915</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02872268616742391</v>
+        <v>0.03222708804034035</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02868768712854163</v>
+        <v>0.03187862165922341</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02804791659761854</v>
+        <v>0.03164011354019894</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02775839900052697</v>
+        <v>0.03117954519611916</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02742037517732443</v>
+        <v>0.03093850863814578</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02713258567321796</v>
+        <v>0.03081998543866039</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02688026967745171</v>
+        <v>0.03068385546372995</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02670058892456267</v>
+        <v>0.03053249438010132</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02665466711034592</v>
+        <v>0.03050532668905769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02656684676286638</v>
+        <v>0.03047850267852293</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5468440055847168</v>
+        <v>1.111999034881592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1522.855548330979</v>
+        <v>1532.955287202603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08361686332864879</v>
+        <v>0.07947233859252406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06423223509984911</v>
+        <v>0.06420178573102718</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05331887230971315</v>
+        <v>0.05078747664476856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04778818701787041</v>
+        <v>0.04593257105825917</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04346189893065654</v>
+        <v>0.04275806102706295</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04071720165153045</v>
+        <v>0.03948619307127019</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03819074901077502</v>
+        <v>0.03741482683367984</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03531036696737656</v>
+        <v>0.03640752496621434</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03462112202391379</v>
+        <v>0.03483950736982036</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03299750715313022</v>
+        <v>0.03334303958550467</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03210460208562309</v>
+        <v>0.03227850033285153</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03147271764788988</v>
+        <v>0.03171939123935075</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03104447805117199</v>
+        <v>0.03126537217525002</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03083306409177649</v>
+        <v>0.03086341206727682</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03042183779829276</v>
+        <v>0.03052695433013307</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03023575642590364</v>
+        <v>0.03041065458517972</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02994225360485253</v>
+        <v>0.03013034348423771</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02984155714810646</v>
+        <v>0.03005949569128873</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02973538314249876</v>
+        <v>0.02999706921209486</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02968529333978516</v>
+        <v>0.02988216934118135</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6373727321624756</v>
+        <v>1.119001865386963</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1424.804695031242</v>
+        <v>1534.82336978748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08640468316215603</v>
+        <v>0.07766070316551799</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06733635468590429</v>
+        <v>0.05665119251833779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0565765207963202</v>
+        <v>0.04912561126866217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04773599730404315</v>
+        <v>0.04374698841124713</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04110232628151335</v>
+        <v>0.04006241427669662</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0386170366768795</v>
+        <v>0.03725453695531966</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03540348277681836</v>
+        <v>0.03582198000058514</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03409179806983577</v>
+        <v>0.03402770501765689</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03252989001615429</v>
+        <v>0.0334607379776943</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03132877753908755</v>
+        <v>0.03244672192785427</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03053147885008178</v>
+        <v>0.03193517214605673</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.029798049838418</v>
+        <v>0.03142268560304064</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02942136100226323</v>
+        <v>0.03116759852780791</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02903172112738912</v>
+        <v>0.03083764816724955</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02862035906896673</v>
+        <v>0.03044638981175303</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02841107059161844</v>
+        <v>0.03033215963462093</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02826432080213943</v>
+        <v>0.03019518707484485</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02797031877465897</v>
+        <v>0.03004332584504309</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02782767106898802</v>
+        <v>0.02995321341626812</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02777397066337703</v>
+        <v>0.02991858420638362</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5726428031921387</v>
+        <v>1.286028623580933</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.61952884516</v>
+        <v>1559.876389005842</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08466164772061893</v>
+        <v>0.08062226718419341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0653563507779675</v>
+        <v>0.0633537106116964</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05189310557398728</v>
+        <v>0.04885099048309342</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0420133442655346</v>
+        <v>0.0461462751543393</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03926378465200384</v>
+        <v>0.04155734818721813</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03611035277400767</v>
+        <v>0.03892009594781526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03338242622980554</v>
+        <v>0.03737166290408434</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03207948419195458</v>
+        <v>0.035770579176684</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03062691710373522</v>
+        <v>0.03461791909707495</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02890188730833924</v>
+        <v>0.03340974734907779</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02823492821027294</v>
+        <v>0.03263078761518345</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02755394327352632</v>
+        <v>0.03227940953829144</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02724653630065522</v>
+        <v>0.03191476994046372</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02699015815157269</v>
+        <v>0.03148428337404723</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02670298475785676</v>
+        <v>0.03125431785849882</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02656354568836831</v>
+        <v>0.03096990897421737</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02619010980841111</v>
+        <v>0.03067989980174966</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0261600494083787</v>
+        <v>0.0306025852791727</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02609478420039806</v>
+        <v>0.03048011964441564</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02601597522115321</v>
+        <v>0.03040694715410997</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5468497276306152</v>
+        <v>1.205009698867798</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1362.695779015841</v>
+        <v>1535.809331875953</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08148141783192024</v>
+        <v>0.07593223771527903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0648621535885256</v>
+        <v>0.06230481861077591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05050776190242444</v>
+        <v>0.04931639185210891</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03938509009910161</v>
+        <v>0.04574745426883278</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03891252715628523</v>
+        <v>0.04206125111771723</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03578975799524509</v>
+        <v>0.0406606025460587</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0340451984605006</v>
+        <v>0.03803777412273155</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03267302015811795</v>
+        <v>0.0358273046763253</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03155870263938178</v>
+        <v>0.03465561115603576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03074643779051179</v>
+        <v>0.03312582697502559</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02975779914869726</v>
+        <v>0.03210338089486468</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02917031985495603</v>
+        <v>0.03163888400740018</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02842532408198684</v>
+        <v>0.03109460867688568</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02828845370361033</v>
+        <v>0.03066645506783555</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02783671111642836</v>
+        <v>0.03033736260899277</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02756630559113368</v>
+        <v>0.03029357948821901</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02721721033649855</v>
+        <v>0.03015799508820699</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02690803394605336</v>
+        <v>0.03004708399141228</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02667212698057454</v>
+        <v>0.03000927871637843</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02656327054611776</v>
+        <v>0.02993780374027198</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5625274181365967</v>
+        <v>1.264973640441895</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1427.536268220741</v>
+        <v>1510.84219040336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08137416062519151</v>
+        <v>0.07867579259095119</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06206261508413942</v>
+        <v>0.06272024326533665</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05166531693420968</v>
+        <v>0.05084214781277165</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0457009525546058</v>
+        <v>0.04677467330991568</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04195284247268454</v>
+        <v>0.04259023124793607</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03826442422591787</v>
+        <v>0.03849377373044899</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03583366798151108</v>
+        <v>0.03558293430125814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03419606376162903</v>
+        <v>0.03387870098712459</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03172141654112618</v>
+        <v>0.03279165570677926</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03152267879000625</v>
+        <v>0.03181192382540502</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0304989982389703</v>
+        <v>0.03141428826649796</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02979901203876512</v>
+        <v>0.0309986122625769</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02930614093560772</v>
+        <v>0.03057176781126823</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02873972457558988</v>
+        <v>0.0300382812994116</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02845220114562827</v>
+        <v>0.03001801131379205</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02822787381400904</v>
+        <v>0.02975853950624173</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02812344629002854</v>
+        <v>0.02968652714912619</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02792208928011815</v>
+        <v>0.02959877741035058</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02785596244070385</v>
+        <v>0.02947716910445757</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02782721770410802</v>
+        <v>0.02945111482267758</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5312473773956299</v>
+        <v>1.117023229598999</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1369.49363109059</v>
+        <v>1538.637242243713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08366840322310459</v>
+        <v>0.07328839078205636</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06530783125672728</v>
+        <v>0.06149848644769747</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05175219412386486</v>
+        <v>0.05093753687523453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04322901155093072</v>
+        <v>0.04466662858333086</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0405033377045876</v>
+        <v>0.04176336153414211</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03696016912160736</v>
+        <v>0.037626230230417</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03455058336522786</v>
+        <v>0.03722889232093515</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03257386970215584</v>
+        <v>0.03582012304593573</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03096274792744835</v>
+        <v>0.03422849625528666</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03048850592079426</v>
+        <v>0.03315109969708527</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02947498738543278</v>
+        <v>0.03215288287683542</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02889301128722907</v>
+        <v>0.03178163848094227</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0282789946581179</v>
+        <v>0.03145420902721943</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02787434459961883</v>
+        <v>0.03103973969889052</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02764339016123757</v>
+        <v>0.03075157449647825</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02727148585279834</v>
+        <v>0.03055100333669223</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02704267510064059</v>
+        <v>0.03030857548635659</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02686006151935953</v>
+        <v>0.03015940785870153</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0267554262381233</v>
+        <v>0.03002503019763114</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02669578228246764</v>
+        <v>0.02999292869870784</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5312507152557373</v>
+        <v>1.10099458694458</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1343.889752077903</v>
+        <v>1567.487900034292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0866742594030602</v>
+        <v>0.07194588475046097</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06605318781023191</v>
+        <v>0.06072631922046724</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05270522917609941</v>
+        <v>0.05175798554688724</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04331936367573792</v>
+        <v>0.04543041048694335</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03847274768775324</v>
+        <v>0.04176378041218366</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03408585404114008</v>
+        <v>0.03890348223401793</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03275891905176725</v>
+        <v>0.03655728964999343</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03106931380365048</v>
+        <v>0.03392571392047779</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02980120135938038</v>
+        <v>0.03358903549570231</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02847970326480066</v>
+        <v>0.03287601650786492</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02764410616898378</v>
+        <v>0.03230871120813613</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02756512019493003</v>
+        <v>0.03184564758787532</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02704746752264118</v>
+        <v>0.03157907498213484</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02669376419959543</v>
+        <v>0.0313371440312802</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02651191051881675</v>
+        <v>0.03107813220950995</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02651191051881675</v>
+        <v>0.03094341213213484</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02644560075285921</v>
+        <v>0.03086118458976378</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02635080824615261</v>
+        <v>0.03068746042005874</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02633567656213838</v>
+        <v>0.03061174353015877</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02619668132705463</v>
+        <v>0.03055531968877761</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468757152557373</v>
+        <v>1.308019638061523</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1360.035236524651</v>
+        <v>1552.907806659918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08175339939961866</v>
+        <v>0.07776676636420352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05939275389805506</v>
+        <v>0.0617006673332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05216592886107629</v>
+        <v>0.05459836405230504</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04404828603862633</v>
+        <v>0.04753212285016289</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04031534320730675</v>
+        <v>0.04341415186756343</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03645246841428675</v>
+        <v>0.04034227403060377</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03380732865763134</v>
+        <v>0.03751456731739164</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03154331307519034</v>
+        <v>0.03560108334621516</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02960283905516569</v>
+        <v>0.03455703449140064</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02888392030516455</v>
+        <v>0.03367059286978676</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0287912123092457</v>
+        <v>0.03288617722939217</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02833821593620636</v>
+        <v>0.03198171722661543</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02755637453761902</v>
+        <v>0.0315594877949309</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02733473727608399</v>
+        <v>0.03119102340018483</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02710533514592152</v>
+        <v>0.03084944930583816</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02703616932830748</v>
+        <v>0.03067011246826106</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02678071210946995</v>
+        <v>0.03050959950222781</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02669910760695038</v>
+        <v>0.03043229246611166</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02657388465567731</v>
+        <v>0.03030652034271507</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0265114081193889</v>
+        <v>0.03027110734229859</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5468735694885254</v>
+        <v>1.129971504211426</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1458.047476610283</v>
+        <v>1550.945829316684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08099376482044855</v>
+        <v>0.07674030626819238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06349216034661383</v>
+        <v>0.05976008487428367</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05536012407293445</v>
+        <v>0.05089620939222071</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04544874253695703</v>
+        <v>0.04387812362537052</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04269979952529807</v>
+        <v>0.04189585322602161</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03861602624336143</v>
+        <v>0.03883007158607752</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03628460305708918</v>
+        <v>0.03711183376213075</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03375505558600902</v>
+        <v>0.03495300451456498</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03207306961909756</v>
+        <v>0.03384983847175611</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03144171816093407</v>
+        <v>0.03290591735111401</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03073216207147363</v>
+        <v>0.03208196935223768</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03023585081120483</v>
+        <v>0.03170988004105747</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02976004404791795</v>
+        <v>0.03162327162554464</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02930660986304776</v>
+        <v>0.03121733820735701</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02911696927665261</v>
+        <v>0.03101385456497073</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0289195182716698</v>
+        <v>0.03073330398648413</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02870807738541157</v>
+        <v>0.03062726213866102</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0286143382852668</v>
+        <v>0.03042808330854653</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02849398262840424</v>
+        <v>0.03031844216872494</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02842197810156497</v>
+        <v>0.03023286216991587</v>
       </c>
     </row>
   </sheetData>
